--- a/admin/basicdetails.xlsx
+++ b/admin/basicdetails.xlsx
@@ -116,10 +116,10 @@
     <t xml:space="preserve">उ नि समीर </t>
   </si>
   <si>
-    <t>2020-07-23 17:53:34.000000</t>
-  </si>
-  <si>
-    <t>2020-07-23 17:54:18.000000</t>
+    <t>2020-06-23 05:23:34.000000</t>
+  </si>
+  <si>
+    <t>2020-06-23 05:24:18.000000</t>
   </si>
 </sst>
 </file>
